--- a/plant/bus_dev.xlsx
+++ b/plant/bus_dev.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\btick\src\plant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E1AE29-C580-44D9-ADAE-4E5073F6F631}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1133A9F9-28C9-4126-8C54-C9B78EBC0541}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="377" yWindow="377" windowWidth="30677" windowHeight="13594" xr2:uid="{29111FAF-DAE3-489B-A3B2-FD6A1F3BBD0A}"/>
+    <workbookView xWindow="24165" yWindow="165" windowWidth="31275" windowHeight="15825" xr2:uid="{29111FAF-DAE3-489B-A3B2-FD6A1F3BBD0A}"/>
   </bookViews>
   <sheets>
     <sheet name="heartbeat" sheetId="1" r:id="rId1"/>
+    <sheet name="ps" sheetId="2" r:id="rId2"/>
+    <sheet name="berror" sheetId="3" r:id="rId3"/>
+    <sheet name="tblcnt" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>uid</t>
   </si>
@@ -89,6 +92,33 @@
   </si>
   <si>
     <t>.u.sub[`heartbeat;`]</t>
+  </si>
+  <si>
+    <t>select cnt:count i by uid from ps</t>
+  </si>
+  <si>
+    <t>.u.sub[`ps;`]</t>
+  </si>
+  <si>
+    <t>.u.sub[`berror;`]</t>
+  </si>
+  <si>
+    <t>admin.ctp.berror2</t>
+  </si>
+  <si>
+    <t>(cols[berror] except`result`arg)#berror</t>
+  </si>
+  <si>
+    <t>0!select by tbl from tblcnt</t>
+  </si>
+  <si>
+    <t>.u.sub[`tblcnt;`]</t>
+  </si>
+  <si>
+    <t>admin.ctp.ps</t>
+  </si>
+  <si>
+    <t>admin.ctp.tblcnt</t>
   </si>
   <si>
     <t>admin.ctp.heartbeat1</t>
@@ -98,7 +128,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +140,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,8 +174,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -149,12 +200,36 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.ce2c5ed6c4214ce4ae6502b598602b16">
+    <main first="rtdsrv.155c6eb46d7343b8b6a1c74df5885d24">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>admin.ctp.berror2</stp>
+        <tr r="V2" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d07bfaef484b434588d76035f4951d4c">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>admin.ctp.ps</stp>
+        <tr r="L2" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d07bfaef484b434588d76035f4951d4c">
       <tp>
-        <v>162</v>
+        <v>55</v>
         <stp/>
         <stp>admin.ctp.heartbeat1</stp>
         <tr r="L2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d07bfaef484b434588d76035f4951d4c">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>admin.ctp.tblcnt</stp>
+        <tr r="P2" s="4"/>
       </tp>
     </main>
   </volType>
@@ -461,19 +536,20 @@
   <dimension ref="B2:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.53515625" customWidth="1"/>
-    <col min="5" max="5" width="27.07421875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.84375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.53515625" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -487,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L2" t="str" cm="1">
         <f t="array" ref="L2:U3">_xll.dna_subscribe(I7)</f>
@@ -521,7 +597,7 @@
         <v>symw</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -534,14 +610,14 @@
       <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="L3">
-        <v>44239.926720914351</v>
+      <c r="L3" s="1">
+        <v>44241.557010682867</v>
       </c>
       <c r="M3" t="str">
         <v>bus_dev.admin.tick.0</v>
       </c>
       <c r="N3">
-        <v>16930800</v>
+        <v>13926752</v>
       </c>
       <c r="O3">
         <v>67108864</v>
@@ -559,13 +635,13 @@
         <v>4294967295</v>
       </c>
       <c r="T3">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="U3">
-        <v>65639</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.4">
+        <v>65795</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -585,8 +661,9 @@
       <c r="I4">
         <v>32007</v>
       </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -594,13 +671,14 @@
         <v>bus_dev.admin.bus.0</v>
       </c>
       <c r="F5">
-        <v>367</v>
+        <v>1500</v>
       </c>
       <c r="H5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -608,7 +686,7 @@
         <v>bus_dev.admin.cdb.0</v>
       </c>
       <c r="F6">
-        <v>371</v>
+        <v>1502</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -616,179 +694,1056 @@
       <c r="I6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="str" cm="1">
-        <f t="array" ref="C7">_xll.dna_open_connection(C2,C3,C4,C5,C6)</f>
+        <f t="array" ref="C7">_xll.dna_open_connection(C2,C3,C4,C5)</f>
         <v>admin.rdb</v>
       </c>
       <c r="E7" t="str">
         <v>bus_dev.admin.ctp.0</v>
       </c>
       <c r="F7">
-        <v>371</v>
+        <v>1503</v>
       </c>
       <c r="I7" t="str" cm="1">
         <f t="array" ref="I7">_xll.dna_open_subscriber(I2,I3,I4,I5,I6)</f>
         <v>admin.ctp.heartbeat1</v>
       </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E8" t="str">
         <v>bus_dev.admin.monitorCep.0</v>
       </c>
       <c r="F8">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.4">
+        <v>1504</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E9" t="str">
         <v>bus_dev.admin.rdb.0</v>
       </c>
       <c r="F9">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.4">
+        <v>1466</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E10" t="str">
         <v>bus_dev.admin.replay.0</v>
       </c>
       <c r="F10">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.4">
+        <v>1500</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E11" t="str">
         <v>bus_dev.admin.tick.0</v>
       </c>
       <c r="F11">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.4">
+        <v>2603</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E12" t="str">
         <v>bus_dev.backfill.bus.0</v>
       </c>
       <c r="F12">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.4">
+        <v>1501</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E13" t="str">
         <v>bus_dev.backfill.rdb.0</v>
       </c>
       <c r="F13">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.4">
+        <v>1502</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E14" t="str">
         <v>bus_dev.backfill.replay.0</v>
       </c>
       <c r="F14">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.4">
+        <v>1500</v>
+      </c>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E15" t="str">
         <v>bus_dev.backfill.tick.0</v>
       </c>
       <c r="F15">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.4">
+        <v>1501</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E16" t="str">
         <v>bus_dev.bus_dev.bus.0</v>
       </c>
       <c r="F16">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.4">
+        <v>1496</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" t="str">
         <v>bus_dev.bus_dev.cdb.0</v>
       </c>
       <c r="F17">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.4">
+        <v>1500</v>
+      </c>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" t="str">
         <v>bus_dev.bus_dev.ctp.0</v>
       </c>
       <c r="F18">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.4">
+        <v>1498</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" t="str">
         <v>bus_dev.bus_dev.dynamicHdb.0</v>
       </c>
       <c r="F19">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.4">
+        <v>1498</v>
+      </c>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" t="str">
         <v>bus_dev.bus_dev.dynamicHdb.1</v>
       </c>
       <c r="F20">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.4">
+        <v>1499</v>
+      </c>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" t="str">
         <v>bus_dev.bus_dev.dynamicHdb.2</v>
       </c>
       <c r="F21">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.4">
+        <v>1498</v>
+      </c>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" t="str">
         <v>bus_dev.bus_dev.dynamicHdb.3</v>
       </c>
       <c r="F22">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.4">
+        <v>1498</v>
+      </c>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" t="str">
         <v>bus_dev.bus_dev.gateway.0</v>
       </c>
       <c r="F23">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.4">
+        <v>1500</v>
+      </c>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" t="str">
         <v>bus_dev.bus_dev.rdb.0</v>
       </c>
       <c r="F24">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.4">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" t="str">
         <v>bus_dev.bus_dev.replay.0</v>
       </c>
       <c r="F25">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" t="str">
         <v>bus_dev.bus_dev.tick.0</v>
       </c>
       <c r="F26">
-        <v>369</v>
+        <v>1497</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C584891-E8D9-4180-B503-52EB1A46D3B4}">
+  <dimension ref="B2:U27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="str">
+        <f>heartbeat!$C$2</f>
+        <v>admin.rdb</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="3" t="e" cm="1">
+        <f t="array" ref="L2">_xll.dna_subscribe(I7)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E4" t="str" cm="1">
+        <f t="array" ref="E4:F27">_xll.dna_execute($C$8,$C$2,E2)</f>
+        <v>uid</v>
+      </c>
+      <c r="F4" t="str">
+        <v>cnt</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>32007</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E5" t="str">
+        <v>bus_dev.admin.bus.0</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E6" t="str">
+        <v>bus_dev.admin.cdb.0</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E7" t="str">
+        <v>bus_dev.admin.checker.0</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="str" cm="1">
+        <f t="array" ref="I7">_xll.dna_open_subscriber(I2,I3,I4,I5,I6)</f>
+        <v>admin.ctp.ps</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E8" t="str">
+        <v>bus_dev.admin.ctp.0</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <v>bus_dev.admin.monitorCep.0</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <v>bus_dev.admin.rdb.0</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E11" t="str">
+        <v>bus_dev.admin.replay.0</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E12" t="str">
+        <v>bus_dev.admin.tick.0</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <v>bus_dev.backfill.bus.0</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E14" t="str">
+        <v>bus_dev.backfill.rdb.0</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E15" t="str">
+        <v>bus_dev.backfill.replay.0</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <v>bus_dev.backfill.tick.0</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E17" t="str">
+        <v>bus_dev.bus_dev.bus.0</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E18" t="str">
+        <v>bus_dev.bus_dev.cdb.0</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <v>bus_dev.bus_dev.ctp.0</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <v>bus_dev.bus_dev.dynamicHdb.0</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E21" t="str">
+        <v>bus_dev.bus_dev.dynamicHdb.1</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E22" t="str">
+        <v>bus_dev.bus_dev.dynamicHdb.2</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E23" t="str">
+        <v>bus_dev.bus_dev.dynamicHdb.3</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E24" t="str">
+        <v>bus_dev.bus_dev.gateway.0</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E25" t="str">
+        <v>bus_dev.bus_dev.rdb.0</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E26" t="str">
+        <v>bus_dev.bus_dev.replay.0</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E27" t="str">
+        <v>bus_dev.bus_dev.tick.0</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7A622C-22E7-44DB-A9EF-873A1D6C9A89}">
+  <dimension ref="B2:AE25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16" customWidth="1"/>
+    <col min="10" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="16" customWidth="1"/>
+    <col min="22" max="22" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="str">
+        <f>heartbeat!$C$2</f>
+        <v>admin.rdb</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="3" t="e" cm="1">
+        <f t="array" ref="V2">_xll.dna_subscribe(S7)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+    </row>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="E4" t="str" cm="1">
+        <f t="array" ref="E4:N4">_xll.dna_execute($C$3,$C$2,E2)</f>
+        <v>date</v>
+      </c>
+      <c r="F4" t="str">
+        <v>time</v>
+      </c>
+      <c r="G4" t="str">
+        <v>uid</v>
+      </c>
+      <c r="H4" t="str">
+        <v>action</v>
+      </c>
+      <c r="I4" t="str">
+        <v>mode</v>
+      </c>
+      <c r="J4" t="str">
+        <v>time</v>
+      </c>
+      <c r="K4" t="str">
+        <v>etime</v>
+      </c>
+      <c r="L4" t="str">
+        <v>seq</v>
+      </c>
+      <c r="M4" t="str">
+        <v>eseq</v>
+      </c>
+      <c r="N4" t="str">
+        <v>error</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>32007</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+      <c r="F5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="R5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="R6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+      <c r="F7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="S7" t="str" cm="1">
+        <f t="array" ref="S7">_xll.dna_open_subscriber(S2,S3,S4,S5,S6)</f>
+        <v>admin.ctp.berror2</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+      <c r="F8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="V9" s="1"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="V10" s="1"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="V11" s="1"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="V12" s="1"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="V13" s="1"/>
+      <c r="Z13" s="2"/>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="V14" s="1"/>
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="V15" s="1"/>
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="V16" s="1"/>
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V17" s="1"/>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V18" s="1"/>
+      <c r="Z18" s="2"/>
+    </row>
+    <row r="19" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V19" s="1"/>
+      <c r="Z19" s="2"/>
+    </row>
+    <row r="20" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V20" s="1"/>
+      <c r="Z20" s="2"/>
+    </row>
+    <row r="21" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V21" s="1"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V22" s="1"/>
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V23" s="1"/>
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V24" s="1"/>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V25" s="1"/>
+      <c r="Z25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341BB977-8195-409A-A726-375E6EACA656}">
+  <dimension ref="B2:Y25"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="str">
+        <f>heartbeat!$C$2</f>
+        <v>admin.rdb</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="3" t="e" cm="1">
+        <f t="array" ref="P2">_xll.dna_subscribe(M7)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E4" t="str" cm="1">
+        <f t="array" ref="E4:I11">_xll.dna_execute($C$3,$C$2,E2)</f>
+        <v>tbl</v>
+      </c>
+      <c r="F4" t="str">
+        <v>date</v>
+      </c>
+      <c r="G4" t="str">
+        <v>btime</v>
+      </c>
+      <c r="H4" t="str">
+        <v>cnt</v>
+      </c>
+      <c r="I4" t="str">
+        <v>etime</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>32007</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="str">
+        <v>afterExecution</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44240</v>
+      </c>
+      <c r="G5">
+        <v>44240.570875150464</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>44240.57093332176</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="str">
+        <v>beforeExecution</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44240</v>
+      </c>
+      <c r="G6">
+        <v>44240.570875150464</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>44240.57093332176</v>
+      </c>
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="str">
+        <v>berror</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44240</v>
+      </c>
+      <c r="G7">
+        <v>44240.570875150464</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>44240.57093332176</v>
+      </c>
+      <c r="M7" t="str" cm="1">
+        <f t="array" ref="M7">_xll.dna_open_subscriber(M2,M3,M4,M5,M6)</f>
+        <v>admin.ctp.tblcnt</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="str">
+        <v>heartbeat</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44240</v>
+      </c>
+      <c r="G8">
+        <v>44240.570875150464</v>
+      </c>
+      <c r="H8">
+        <v>67</v>
+      </c>
+      <c r="I8">
+        <v>44240.57093332176</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <v>info</v>
+      </c>
+      <c r="F9">
+        <v>44240</v>
+      </c>
+      <c r="G9">
+        <v>44240.570875150464</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>44240.57093332176</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <v>ps</v>
+      </c>
+      <c r="F10">
+        <v>44240</v>
+      </c>
+      <c r="G10">
+        <v>44240.570875150464</v>
+      </c>
+      <c r="H10">
+        <v>46</v>
+      </c>
+      <c r="I10">
+        <v>44240.57093332176</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E11" t="str">
+        <v>tblcnt</v>
+      </c>
+      <c r="F11">
+        <v>44240</v>
+      </c>
+      <c r="G11">
+        <v>44240.570875150464</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>44240.57093332176</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="P12" s="1"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="P13" s="1"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="P14" s="1"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="P15" s="1"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="P16" s="1"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P17" s="1"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P18" s="1"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P19" s="1"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P20" s="1"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P21" s="1"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P22" s="1"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P23" s="1"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P24" s="1"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P25" s="1"/>
+      <c r="T25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/plant/bus_dev.xlsx
+++ b/plant/bus_dev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\btick\src\plant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E1AE29-C580-44D9-ADAE-4E5073F6F631}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD5EFFB-49CA-4AD1-A85E-FAAD2FDA1F5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="377" yWindow="377" windowWidth="30677" windowHeight="13594" xr2:uid="{29111FAF-DAE3-489B-A3B2-FD6A1F3BBD0A}"/>
   </bookViews>
@@ -151,7 +151,7 @@
   <volType type="realTimeData">
     <main first="rtdsrv.ce2c5ed6c4214ce4ae6502b598602b16">
       <tp>
-        <v>162</v>
+        <v>230</v>
         <stp/>
         <stp>admin.ctp.heartbeat1</stp>
         <tr r="L2" s="1"/>
@@ -535,13 +535,13 @@
         <v>7</v>
       </c>
       <c r="L3">
-        <v>44239.926720914351</v>
+        <v>44239.927325150464</v>
       </c>
       <c r="M3" t="str">
         <v>bus_dev.admin.tick.0</v>
       </c>
       <c r="N3">
-        <v>16930800</v>
+        <v>17940560</v>
       </c>
       <c r="O3">
         <v>67108864</v>
